--- a/scan_sort/plots/Sort Int.xlsx
+++ b/scan_sort/plots/Sort Int.xlsx
@@ -14,9 +14,6 @@
     <sheet name="Thrust OMP" sheetId="8" r:id="rId5"/>
     <sheet name="Thrust CUDA" sheetId="9" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -96,19 +93,19 @@
     <t>K20Xm</t>
   </si>
   <si>
-    <t>K20c_CUDA</t>
-  </si>
-  <si>
     <t>K20Xm_CUDA</t>
   </si>
   <si>
     <t>GTX770_CUDA</t>
   </si>
   <si>
-    <t>K20c</t>
+    <t>No compile</t>
   </si>
   <si>
-    <t>No compile</t>
+    <t>K40c</t>
+  </si>
+  <si>
+    <t>K40c_CUDA</t>
   </si>
 </sst>
 </file>
@@ -744,11 +741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="36211712"/>
-        <c:axId val="74465664"/>
+        <c:axId val="79659392"/>
+        <c:axId val="83643008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36211712"/>
+        <c:axId val="79659392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -783,13 +780,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74465664"/>
+        <c:crossAx val="83643008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74465664"/>
+        <c:axId val="83643008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36211712"/>
+        <c:crossAx val="79659392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1523,7 +1520,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>K20c_CUDA</c:v>
+                  <c:v>K40c_CUDA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1652,11 +1649,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="76222464"/>
-        <c:axId val="76224384"/>
+        <c:axId val="72260608"/>
+        <c:axId val="72275072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76222464"/>
+        <c:axId val="72260608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -1685,19 +1682,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76224384"/>
+        <c:crossAx val="72275072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76224384"/>
+        <c:axId val="72275072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,19 +1718,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76222464"/>
+        <c:crossAx val="72260608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2380,11 +2380,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="76260864"/>
-        <c:axId val="76262784"/>
+        <c:axId val="72352512"/>
+        <c:axId val="72354432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76260864"/>
+        <c:axId val="72352512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2420,13 +2420,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76262784"/>
+        <c:crossAx val="72354432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76262784"/>
+        <c:axId val="72354432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76260864"/>
+        <c:crossAx val="72352512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3026,11 +3026,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="87900928"/>
-        <c:axId val="87902848"/>
+        <c:axId val="72399488"/>
+        <c:axId val="72401664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87900928"/>
+        <c:axId val="72399488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3066,13 +3066,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87902848"/>
+        <c:crossAx val="72401664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87902848"/>
+        <c:axId val="72401664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3107,7 +3107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87900928"/>
+        <c:crossAx val="72399488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3158,7 +3158,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>K20c</c:v>
+                  <c:v>K40c</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3417,11 +3417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112645632"/>
-        <c:axId val="112752512"/>
+        <c:axId val="72464256"/>
+        <c:axId val="72474624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112645632"/>
+        <c:axId val="72464256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3457,13 +3457,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112752512"/>
+        <c:crossAx val="72474624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112752512"/>
+        <c:axId val="72474624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3493,7 +3493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112645632"/>
+        <c:crossAx val="72464256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3698,501 +3698,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ORG"/>
-      <sheetName val="VexCL CPU"/>
-      <sheetName val="VexCL GPU"/>
-      <sheetName val="Boost"/>
-      <sheetName val="Thrust OMP"/>
-      <sheetName val="Thrust CUDA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Xeon Phi</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Xeon E5-2690v2</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>i7-5960X</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Opteron</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>10</v>
-          </cell>
-          <cell r="B2">
-            <v>49300900</v>
-          </cell>
-          <cell r="C2">
-            <v>913227000</v>
-          </cell>
-          <cell r="D2">
-            <v>979067000</v>
-          </cell>
-          <cell r="E2">
-            <v>302543000</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>11</v>
-          </cell>
-          <cell r="B3">
-            <v>49308700</v>
-          </cell>
-          <cell r="C3">
-            <v>910704000</v>
-          </cell>
-          <cell r="D3">
-            <v>1198670000</v>
-          </cell>
-          <cell r="E3">
-            <v>302647000</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>12</v>
-          </cell>
-          <cell r="B4">
-            <v>49316600</v>
-          </cell>
-          <cell r="C4">
-            <v>950332000</v>
-          </cell>
-          <cell r="D4">
-            <v>1204980000</v>
-          </cell>
-          <cell r="E4">
-            <v>302801000</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>13</v>
-          </cell>
-          <cell r="B5">
-            <v>49318300</v>
-          </cell>
-          <cell r="C5">
-            <v>919568000</v>
-          </cell>
-          <cell r="D5">
-            <v>1209620000</v>
-          </cell>
-          <cell r="E5">
-            <v>302404000</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>14</v>
-          </cell>
-          <cell r="B6">
-            <v>49263900</v>
-          </cell>
-          <cell r="C6">
-            <v>985643000</v>
-          </cell>
-          <cell r="D6">
-            <v>1163660000</v>
-          </cell>
-          <cell r="E6">
-            <v>302640000</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>15</v>
-          </cell>
-          <cell r="B7">
-            <v>49316300</v>
-          </cell>
-          <cell r="C7">
-            <v>904264000</v>
-          </cell>
-          <cell r="D7">
-            <v>1218500000</v>
-          </cell>
-          <cell r="E7">
-            <v>300252000</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>16</v>
-          </cell>
-          <cell r="B8">
-            <v>49324100</v>
-          </cell>
-          <cell r="C8">
-            <v>940382000</v>
-          </cell>
-          <cell r="D8">
-            <v>1201960000</v>
-          </cell>
-          <cell r="E8">
-            <v>302845000</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>17</v>
-          </cell>
-          <cell r="B9">
-            <v>49318600</v>
-          </cell>
-          <cell r="C9">
-            <v>983457000</v>
-          </cell>
-          <cell r="D9">
-            <v>1207140000</v>
-          </cell>
-          <cell r="E9">
-            <v>302562000</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>18</v>
-          </cell>
-          <cell r="B10">
-            <v>49331500</v>
-          </cell>
-          <cell r="C10">
-            <v>934176000</v>
-          </cell>
-          <cell r="D10">
-            <v>1210960000</v>
-          </cell>
-          <cell r="E10">
-            <v>302407000</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>19</v>
-          </cell>
-          <cell r="B11">
-            <v>49315800</v>
-          </cell>
-          <cell r="C11">
-            <v>912707000</v>
-          </cell>
-          <cell r="D11">
-            <v>1205660000</v>
-          </cell>
-          <cell r="E11">
-            <v>301920000</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>20</v>
-          </cell>
-          <cell r="B12">
-            <v>49320800</v>
-          </cell>
-          <cell r="C12">
-            <v>963829000</v>
-          </cell>
-          <cell r="D12">
-            <v>1214650000</v>
-          </cell>
-          <cell r="E12">
-            <v>302012000</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>21</v>
-          </cell>
-          <cell r="B13">
-            <v>49325200</v>
-          </cell>
-          <cell r="C13">
-            <v>930988000</v>
-          </cell>
-          <cell r="D13">
-            <v>1128320000</v>
-          </cell>
-          <cell r="E13">
-            <v>299075000</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>22</v>
-          </cell>
-          <cell r="B14">
-            <v>49312900</v>
-          </cell>
-          <cell r="C14">
-            <v>915967000</v>
-          </cell>
-          <cell r="D14">
-            <v>1191930000</v>
-          </cell>
-          <cell r="E14">
-            <v>300890000</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>23</v>
-          </cell>
-          <cell r="B15">
-            <v>49314000</v>
-          </cell>
-          <cell r="C15">
-            <v>953262000</v>
-          </cell>
-          <cell r="D15">
-            <v>997923000</v>
-          </cell>
-          <cell r="E15">
-            <v>299069000</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>24</v>
-          </cell>
-          <cell r="B16">
-            <v>49334300</v>
-          </cell>
-          <cell r="C16">
-            <v>919775000</v>
-          </cell>
-          <cell r="D16">
-            <v>1209460000</v>
-          </cell>
-          <cell r="E16">
-            <v>301941000</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>25</v>
-          </cell>
-          <cell r="B17">
-            <v>49321300</v>
-          </cell>
-          <cell r="C17">
-            <v>949718000</v>
-          </cell>
-          <cell r="D17">
-            <v>1212880000</v>
-          </cell>
-          <cell r="E17">
-            <v>304697000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>K20c</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>K20Xm</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>10</v>
-          </cell>
-          <cell r="B2">
-            <v>4777820000</v>
-          </cell>
-          <cell r="C2">
-            <v>4523210000</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>11</v>
-          </cell>
-          <cell r="B3">
-            <v>4859350000</v>
-          </cell>
-          <cell r="C3">
-            <v>4504190000</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>12</v>
-          </cell>
-          <cell r="B4">
-            <v>4866500000</v>
-          </cell>
-          <cell r="C4">
-            <v>4631590000</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>13</v>
-          </cell>
-          <cell r="B5">
-            <v>4970060000</v>
-          </cell>
-          <cell r="C5">
-            <v>4716970000</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>14</v>
-          </cell>
-          <cell r="B6">
-            <v>4975420000</v>
-          </cell>
-          <cell r="C6">
-            <v>4720610000</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>15</v>
-          </cell>
-          <cell r="B7">
-            <v>5068480000</v>
-          </cell>
-          <cell r="C7">
-            <v>4758110000</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>16</v>
-          </cell>
-          <cell r="B8">
-            <v>5099080000</v>
-          </cell>
-          <cell r="C8">
-            <v>4788910000</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>17</v>
-          </cell>
-          <cell r="B9">
-            <v>5123520000</v>
-          </cell>
-          <cell r="C9">
-            <v>4772700000</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>18</v>
-          </cell>
-          <cell r="B10">
-            <v>5170490000</v>
-          </cell>
-          <cell r="C10">
-            <v>4789940000</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>19</v>
-          </cell>
-          <cell r="B11">
-            <v>5193110000</v>
-          </cell>
-          <cell r="C11">
-            <v>4893400000</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>20</v>
-          </cell>
-          <cell r="B12">
-            <v>5143350000</v>
-          </cell>
-          <cell r="C12">
-            <v>4874710000</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>21</v>
-          </cell>
-          <cell r="B13">
-            <v>5218840000</v>
-          </cell>
-          <cell r="C13">
-            <v>4877680000</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>22</v>
-          </cell>
-          <cell r="B14">
-            <v>5262470000</v>
-          </cell>
-          <cell r="C14">
-            <v>4666730000</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>23</v>
-          </cell>
-          <cell r="B15">
-            <v>5264150000</v>
-          </cell>
-          <cell r="C15">
-            <v>4716630000</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>24</v>
-          </cell>
-          <cell r="B16">
-            <v>5262310000</v>
-          </cell>
-          <cell r="C16">
-            <v>4987170000</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>25</v>
-          </cell>
-          <cell r="B17">
-            <v>5308190000</v>
-          </cell>
-          <cell r="C17">
-            <v>4975030000</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4485,7 +3990,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4543,7 +4048,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
@@ -4664,7 +4169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4978,8 +4483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5009,13 +4514,13 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -5397,7 +4902,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6176,7 +5681,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
